--- a/展覽資訊.xlsx
+++ b/展覽資訊.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github project\Exhibition-info-Flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7490BF-F497-41E5-8050-02D77C7F8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C17A31-BCB7-4BAD-A519-320FE3692358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="345" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{8172ACE8-C4CE-4C7B-91E7-1C38E7A331EF}"/>
+    <workbookView xWindow="2025" yWindow="690" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{0B161997-C910-49BB-A287-E6560486E019}"/>
   </bookViews>
   <sheets>
     <sheet name="taipei" sheetId="2" r:id="rId1"/>
     <sheet name="tainan" sheetId="3" r:id="rId2"/>
     <sheet name="kaohsiung" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -803,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F36B597-5B38-468B-BD60-B625D687B930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E884B9D5-FDB3-4CBF-98C6-9E50230989C9}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1089,7 +1090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82518BA1-2EEA-4FD8-8522-6884F7E94F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56FC074-F9D1-4FF5-A9F7-93DD93EE0AD9}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1207,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F357F4B0-A5A5-4160-8672-FE1FDC9B1DB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6DA9A9-447F-42A3-82A8-310D48D0CA69}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1322,4 +1323,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A4C9F2-6638-41DD-AE4D-04291FF87F5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>